--- a/Table/Table_xls/技能相关表/s生活技能表.xlsx
+++ b/Table/Table_xls/技能相关表/s生活技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -640,10 +640,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -672,25 +672,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -708,8 +692,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,6 +732,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -733,43 +763,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,6 +777,21 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -790,27 +799,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -858,175 +858,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,6 +880,168 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1049,6 +1049,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1069,15 +1099,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1090,8 +1111,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1114,38 +1144,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1154,148 +1154,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1737,11 +1737,11 @@
   <dimension ref="A1:AP27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG31" sqref="AG31"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1929,8 +1929,11 @@
       <c r="I2" s="1">
         <v>160</v>
       </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1940,7 +1943,7 @@
       <c r="S2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="W2" s="7">
         <v>1</v>
@@ -2004,8 +2007,11 @@
       <c r="I3" s="1">
         <v>160</v>
       </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
@@ -2015,7 +2021,7 @@
       <c r="S3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="W3" s="7">
         <v>1</v>
@@ -2079,8 +2085,11 @@
       <c r="I4" s="1">
         <v>160</v>
       </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
@@ -2090,7 +2099,7 @@
       <c r="S4" s="7"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="W4" s="7">
         <v>1</v>
@@ -2838,8 +2847,11 @@
       <c r="I14" s="1">
         <v>160</v>
       </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" s="1">
         <v>2</v>
@@ -2849,7 +2861,7 @@
       <c r="S14" s="7"/>
       <c r="U14" s="7"/>
       <c r="V14" s="7">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="W14" s="7">
         <v>1</v>
@@ -2913,8 +2925,11 @@
       <c r="I15" s="1">
         <v>160</v>
       </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15" s="1">
         <v>2</v>
@@ -2924,7 +2939,7 @@
       <c r="S15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="W15" s="7">
         <v>1</v>
@@ -2987,6 +3002,9 @@
       </c>
       <c r="I16" s="1">
         <v>160</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
@@ -3007,7 +3025,7 @@
       <c r="T16" s="17"/>
       <c r="U16" s="18"/>
       <c r="V16" s="7">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="W16" s="7">
         <v>1</v>
@@ -3068,6 +3086,9 @@
       </c>
       <c r="I17" s="1">
         <v>160</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
       </c>
       <c r="K17" s="1">
         <v>1</v>
@@ -3088,7 +3109,7 @@
       <c r="T17" s="19"/>
       <c r="U17" s="19"/>
       <c r="V17" s="7">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="W17" s="7">
         <v>1</v>
